--- a/Code/Results/Cases/Case_5_253/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_253/res_bus/vm_pu.xlsx
@@ -418,37 +418,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>0.9980212461926332</v>
+        <v>1.045635148374532</v>
       </c>
       <c r="D2">
-        <v>1.018847679150239</v>
+        <v>1.048989521873808</v>
       </c>
       <c r="E2">
-        <v>1.003956376406818</v>
+        <v>1.043272374191927</v>
       </c>
       <c r="F2">
-        <v>1.018709411282452</v>
+        <v>1.057266750859573</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.046081616010043</v>
+        <v>1.038945101223043</v>
       </c>
       <c r="J2">
-        <v>1.020261302955288</v>
+        <v>1.050693830037792</v>
       </c>
       <c r="K2">
-        <v>1.030050535101954</v>
+        <v>1.051747829631311</v>
       </c>
       <c r="L2">
-        <v>1.015360866438861</v>
+        <v>1.046046707304128</v>
       </c>
       <c r="M2">
-        <v>1.029914105396652</v>
+        <v>1.060002189996295</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -456,37 +456,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.00615946658786</v>
+        <v>1.047219679848313</v>
       </c>
       <c r="D3">
-        <v>1.025108429825665</v>
+        <v>1.050208786366259</v>
       </c>
       <c r="E3">
-        <v>1.010784838605285</v>
+        <v>1.044642879433515</v>
       </c>
       <c r="F3">
-        <v>1.025940086055577</v>
+        <v>1.058716748892199</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.048765297839418</v>
+        <v>1.039344011464254</v>
       </c>
       <c r="J3">
-        <v>1.026483615178826</v>
+        <v>1.051922970927945</v>
       </c>
       <c r="K3">
-        <v>1.035429815246159</v>
+        <v>1.052778198188464</v>
       </c>
       <c r="L3">
-        <v>1.021281560384174</v>
+        <v>1.047226751078704</v>
       </c>
       <c r="M3">
-        <v>1.036251477726293</v>
+        <v>1.061264374463785</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -494,37 +494,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.011256166779453</v>
+        <v>1.048243119561687</v>
       </c>
       <c r="D4">
-        <v>1.029031315110281</v>
+        <v>1.050995869573817</v>
       </c>
       <c r="E4">
-        <v>1.015067119692059</v>
+        <v>1.045528195622351</v>
       </c>
       <c r="F4">
-        <v>1.030474890246527</v>
+        <v>1.059653462628368</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.0504297908373</v>
+        <v>1.03959960859058</v>
       </c>
       <c r="J4">
-        <v>1.030376256490919</v>
+        <v>1.052716100873802</v>
       </c>
       <c r="K4">
-        <v>1.038791542501534</v>
+        <v>1.053442493544439</v>
       </c>
       <c r="L4">
-        <v>1.024987036345052</v>
+        <v>1.047988300916332</v>
       </c>
       <c r="M4">
-        <v>1.040218913424487</v>
+        <v>1.062079045932167</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -532,37 +532,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.01336074475676</v>
+        <v>1.048672938301473</v>
       </c>
       <c r="D5">
-        <v>1.03065152916166</v>
+        <v>1.051326319781069</v>
       </c>
       <c r="E5">
-        <v>1.016836691951495</v>
+        <v>1.045900032631819</v>
       </c>
       <c r="F5">
-        <v>1.032348873070694</v>
+        <v>1.060046897896429</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.051113138106952</v>
+        <v>1.039706459944936</v>
       </c>
       <c r="J5">
-        <v>1.031982556788911</v>
+        <v>1.053049011617624</v>
       </c>
       <c r="K5">
-        <v>1.040177883379931</v>
+        <v>1.053721189366414</v>
       </c>
       <c r="L5">
-        <v>1.026516457963784</v>
+        <v>1.048307980266619</v>
       </c>
       <c r="M5">
-        <v>1.041856726159346</v>
+        <v>1.06242105085341</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -570,37 +570,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.013711946988095</v>
+        <v>1.048745081507456</v>
       </c>
       <c r="D6">
-        <v>1.030921919127787</v>
+        <v>1.051381778230287</v>
       </c>
       <c r="E6">
-        <v>1.017132062966233</v>
+        <v>1.045962445395373</v>
       </c>
       <c r="F6">
-        <v>1.032661675239864</v>
+        <v>1.060112936565062</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.051226936056479</v>
+        <v>1.039724365552408</v>
       </c>
       <c r="J6">
-        <v>1.03225054260145</v>
+        <v>1.053104878445934</v>
       </c>
       <c r="K6">
-        <v>1.040409119883607</v>
+        <v>1.053767950134936</v>
       </c>
       <c r="L6">
-        <v>1.026771638387578</v>
+        <v>1.048361628107235</v>
       </c>
       <c r="M6">
-        <v>1.042130006743825</v>
+        <v>1.062478446863438</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -608,37 +608,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.011284434789931</v>
+        <v>1.048248864519481</v>
       </c>
       <c r="D7">
-        <v>1.029053076132618</v>
+        <v>1.051000286785134</v>
       </c>
       <c r="E7">
-        <v>1.015090883035662</v>
+        <v>1.045533165492534</v>
       </c>
       <c r="F7">
-        <v>1.030500055478248</v>
+        <v>1.059658721131713</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.050438985167183</v>
+        <v>1.039601038704505</v>
       </c>
       <c r="J7">
-        <v>1.03039783620141</v>
+        <v>1.052720551282191</v>
       </c>
       <c r="K7">
-        <v>1.038810170703803</v>
+        <v>1.05344621973964</v>
       </c>
       <c r="L7">
-        <v>1.025007581841588</v>
+        <v>1.047992574350271</v>
       </c>
       <c r="M7">
-        <v>1.040240913950841</v>
+        <v>1.062083617707869</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -646,37 +646,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.000808193610521</v>
+        <v>1.046171038684979</v>
       </c>
       <c r="D8">
-        <v>1.020991176822307</v>
+        <v>1.049401967457019</v>
       </c>
       <c r="E8">
-        <v>1.00629348995502</v>
+        <v>1.043735856296062</v>
       </c>
       <c r="F8">
-        <v>1.021184120285143</v>
+        <v>1.057757106253325</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.047004022400284</v>
+        <v>1.039080439140627</v>
       </c>
       <c r="J8">
-        <v>1.022392977837564</v>
+        <v>1.051109685113578</v>
       </c>
       <c r="K8">
-        <v>1.031894122539401</v>
+        <v>1.052096552556711</v>
       </c>
       <c r="L8">
-        <v>1.017388881462816</v>
+        <v>1.046445930423231</v>
       </c>
       <c r="M8">
-        <v>1.032084585745078</v>
+        <v>1.060429179023084</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -684,37 +684,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9809276718394465</v>
+        <v>1.042494985065503</v>
       </c>
       <c r="D9">
-        <v>1.005715694158152</v>
+        <v>1.046570976444088</v>
       </c>
       <c r="E9">
-        <v>0.9896523877219263</v>
+        <v>1.040557007290881</v>
       </c>
       <c r="F9">
-        <v>1.00356493148207</v>
+        <v>1.054394144293653</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.040357320019683</v>
+        <v>1.038143620304707</v>
       </c>
       <c r="J9">
-        <v>1.00717237840717</v>
+        <v>1.048253913603922</v>
       </c>
       <c r="K9">
-        <v>1.0187167139116</v>
+        <v>1.049699451605135</v>
       </c>
       <c r="L9">
-        <v>1.002915608749157</v>
+        <v>1.04370479083482</v>
       </c>
       <c r="M9">
-        <v>1.016600433740906</v>
+        <v>1.057497862877583</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -722,37 +722,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9665210245970424</v>
+        <v>1.040033825574568</v>
       </c>
       <c r="D10">
-        <v>0.9946737318953053</v>
+        <v>1.044673467546508</v>
       </c>
       <c r="E10">
-        <v>0.9776392588546623</v>
+        <v>1.038429402148724</v>
       </c>
       <c r="F10">
-        <v>0.990848351951811</v>
+        <v>1.052143572707677</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.035459458541977</v>
+        <v>1.037505821568433</v>
       </c>
       <c r="J10">
-        <v>0.9961289218030396</v>
+        <v>1.046338036825167</v>
       </c>
       <c r="K10">
-        <v>1.009139824314082</v>
+        <v>1.048088360404428</v>
       </c>
       <c r="L10">
-        <v>0.9924243311353194</v>
+        <v>1.041866343152298</v>
       </c>
       <c r="M10">
-        <v>1.005384831834056</v>
+        <v>1.0555324667126</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -760,37 +760,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9599559301516976</v>
+        <v>1.03896550157517</v>
       </c>
       <c r="D11">
-        <v>0.9896515377291176</v>
+        <v>1.04384932035441</v>
       </c>
       <c r="E11">
-        <v>0.9721783484552274</v>
+        <v>1.037506035510072</v>
       </c>
       <c r="F11">
-        <v>0.9850684831454352</v>
+        <v>1.051166903744556</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.033209850681884</v>
+        <v>1.037226465435273</v>
       </c>
       <c r="J11">
-        <v>0.9910949794423904</v>
+        <v>1.045505486591483</v>
       </c>
       <c r="K11">
-        <v>1.004771285698266</v>
+        <v>1.047387567017714</v>
       </c>
       <c r="L11">
-        <v>0.9876447303881881</v>
+        <v>1.041067564905601</v>
       </c>
       <c r="M11">
-        <v>1.000277588561039</v>
+        <v>1.054678676948245</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -798,37 +798,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9574628441208536</v>
+        <v>1.038568272322504</v>
       </c>
       <c r="D12">
-        <v>0.9877461121436651</v>
+        <v>1.043542809940863</v>
       </c>
       <c r="E12">
-        <v>0.9701068464064699</v>
+        <v>1.037162731520864</v>
       </c>
       <c r="F12">
-        <v>0.9828761312040682</v>
+        <v>1.050803792036691</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.032353074265607</v>
+        <v>1.037122218179206</v>
       </c>
       <c r="J12">
-        <v>0.9891833067807325</v>
+        <v>1.045195786394256</v>
       </c>
       <c r="K12">
-        <v>1.00311190403336</v>
+        <v>1.047126776011952</v>
       </c>
       <c r="L12">
-        <v>0.9858300704432059</v>
+        <v>1.040770446352182</v>
       </c>
       <c r="M12">
-        <v>0.9983389188890686</v>
+        <v>1.054361118131174</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -836,37 +836,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9580001825181008</v>
+        <v>1.038653497913347</v>
       </c>
       <c r="D13">
-        <v>0.9881567072268571</v>
+        <v>1.043608575034438</v>
       </c>
       <c r="E13">
-        <v>0.9705532133805791</v>
+        <v>1.037236386223024</v>
       </c>
       <c r="F13">
-        <v>0.9833485321798903</v>
+        <v>1.050881695967521</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.032537846046968</v>
+        <v>1.037144601434201</v>
       </c>
       <c r="J13">
-        <v>0.9895953309914638</v>
+        <v>1.045262238823524</v>
       </c>
       <c r="K13">
-        <v>1.003469568706064</v>
+        <v>1.047182738640142</v>
       </c>
       <c r="L13">
-        <v>0.9862211657765644</v>
+        <v>1.040834198284155</v>
       </c>
       <c r="M13">
-        <v>0.9987567228119609</v>
+        <v>1.054429254868614</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -874,37 +874,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9597509972602394</v>
+        <v>1.038932674834492</v>
       </c>
       <c r="D14">
-        <v>0.9894948735757594</v>
+        <v>1.043823992016807</v>
       </c>
       <c r="E14">
-        <v>0.9720080224111473</v>
+        <v>1.037477664567828</v>
       </c>
       <c r="F14">
-        <v>0.9848882174209734</v>
+        <v>1.051136895672603</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.03313947268919</v>
+        <v>1.037217858176168</v>
       </c>
       <c r="J14">
-        <v>0.9909378387070816</v>
+        <v>1.04547989598877</v>
       </c>
       <c r="K14">
-        <v>1.004634891152901</v>
+        <v>1.047366019891234</v>
       </c>
       <c r="L14">
-        <v>0.9874955553811768</v>
+        <v>1.041043013543421</v>
       </c>
       <c r="M14">
-        <v>1.000118211256428</v>
+        <v>1.054652436122184</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -912,37 +912,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9608223320760517</v>
+        <v>1.039104630779597</v>
       </c>
       <c r="D15">
-        <v>0.9903139449816865</v>
+        <v>1.043956666216999</v>
       </c>
       <c r="E15">
-        <v>0.9728985355613351</v>
+        <v>1.037626280846236</v>
       </c>
       <c r="F15">
-        <v>0.9858307039197529</v>
+        <v>1.051294088177392</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.033507290100007</v>
+        <v>1.037262930106416</v>
       </c>
       <c r="J15">
-        <v>0.9917593283151366</v>
+        <v>1.045613941330967</v>
       </c>
       <c r="K15">
-        <v>1.00534790940319</v>
+        <v>1.047478881012616</v>
       </c>
       <c r="L15">
-        <v>0.9882754197164456</v>
+        <v>1.041171616042079</v>
       </c>
       <c r="M15">
-        <v>1.000951427516306</v>
+        <v>1.054789889110966</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -950,37 +950,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9669493979495548</v>
+        <v>1.040104670405722</v>
       </c>
       <c r="D16">
-        <v>0.9950016535476036</v>
+        <v>1.044728109860073</v>
       </c>
       <c r="E16">
-        <v>0.9779958818816908</v>
+        <v>1.038490637943634</v>
       </c>
       <c r="F16">
-        <v>0.9912258228257421</v>
+        <v>1.052208344775701</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.035605894567882</v>
+        <v>1.037524294117333</v>
       </c>
       <c r="J16">
-        <v>0.9964573717235501</v>
+        <v>1.046393227265235</v>
       </c>
       <c r="K16">
-        <v>1.009424799912388</v>
+        <v>1.048134802124072</v>
       </c>
       <c r="L16">
-        <v>0.9927362427641395</v>
+        <v>1.041919297451356</v>
       </c>
       <c r="M16">
-        <v>1.005718176134711</v>
+        <v>1.055589071040923</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -988,37 +988,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9707016558083423</v>
+        <v>1.040731257661335</v>
       </c>
       <c r="D17">
-        <v>0.9978751360419524</v>
+        <v>1.045211337668915</v>
       </c>
       <c r="E17">
-        <v>0.9811211951746079</v>
+        <v>1.039032257821975</v>
       </c>
       <c r="F17">
-        <v>0.9945339327387405</v>
+        <v>1.05278124981637</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.036886606644036</v>
+        <v>1.037687385712982</v>
       </c>
       <c r="J17">
-        <v>0.9993342243625352</v>
+        <v>1.046881253275848</v>
       </c>
       <c r="K17">
-        <v>1.011920524678167</v>
+        <v>1.048545387500966</v>
       </c>
       <c r="L17">
-        <v>0.9954685383401807</v>
+        <v>1.042387564611167</v>
       </c>
       <c r="M17">
-        <v>1.008638485536208</v>
+        <v>1.056089631716148</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1026,37 +1026,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9728591465882382</v>
+        <v>1.041096482858632</v>
       </c>
       <c r="D18">
-        <v>0.9995282228525628</v>
+        <v>1.045492954310588</v>
       </c>
       <c r="E18">
-        <v>0.9829194440120991</v>
+        <v>1.039347973572573</v>
       </c>
       <c r="F18">
-        <v>0.9964374344740082</v>
+        <v>1.053115208189176</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.037621333184427</v>
+        <v>1.037782207202128</v>
       </c>
       <c r="J18">
-        <v>1.000988222237603</v>
+        <v>1.047165625310371</v>
       </c>
       <c r="K18">
-        <v>1.013355104756591</v>
+        <v>1.048784568655291</v>
       </c>
       <c r="L18">
-        <v>0.9970396706817</v>
+        <v>1.042660435218415</v>
       </c>
       <c r="M18">
-        <v>1.010317947103507</v>
+        <v>1.056381334549297</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1064,37 +1064,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9735896646146183</v>
+        <v>1.041220972727471</v>
       </c>
       <c r="D19">
-        <v>1.000088092409496</v>
+        <v>1.045588937502713</v>
       </c>
       <c r="E19">
-        <v>0.9835285279141786</v>
+        <v>1.039455590501553</v>
       </c>
       <c r="F19">
-        <v>0.9970821807371983</v>
+        <v>1.053229044459482</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.037869822151707</v>
+        <v>1.037814486896561</v>
       </c>
       <c r="J19">
-        <v>1.001548229489746</v>
+        <v>1.047262540702198</v>
       </c>
       <c r="K19">
-        <v>1.01384077017094</v>
+        <v>1.048866071506495</v>
       </c>
       <c r="L19">
-        <v>0.997571662310715</v>
+        <v>1.042753432905747</v>
       </c>
       <c r="M19">
-        <v>1.010886655330609</v>
+        <v>1.056480752861326</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1102,37 +1102,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9703023311929405</v>
+        <v>1.040664056985425</v>
       </c>
       <c r="D20">
-        <v>0.9975692395310299</v>
+        <v>1.045159516982541</v>
       </c>
       <c r="E20">
-        <v>0.9807884607794823</v>
+        <v>1.038974168090296</v>
       </c>
       <c r="F20">
-        <v>0.994181729097085</v>
+        <v>1.052719804052166</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.036750481990859</v>
+        <v>1.037669919315727</v>
       </c>
       <c r="J20">
-        <v>0.9990280767939331</v>
+        <v>1.046828922275313</v>
       </c>
       <c r="K20">
-        <v>1.011654966019267</v>
+        <v>1.048501367316058</v>
       </c>
       <c r="L20">
-        <v>0.995177748500556</v>
+        <v>1.04233735110639</v>
       </c>
       <c r="M20">
-        <v>1.008327663173408</v>
+        <v>1.056035953841831</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1140,37 +1140,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9592369785081072</v>
+        <v>1.038850475495544</v>
       </c>
       <c r="D21">
-        <v>0.9891019530494521</v>
+        <v>1.043760567788422</v>
       </c>
       <c r="E21">
-        <v>0.9715808429805125</v>
+        <v>1.037406623140204</v>
       </c>
       <c r="F21">
-        <v>0.984436111514902</v>
+        <v>1.05106175499837</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.03296290909321</v>
+        <v>1.037196299223432</v>
       </c>
       <c r="J21">
-        <v>0.9905436936698626</v>
+        <v>1.045415813981647</v>
       </c>
       <c r="K21">
-        <v>1.004292776126211</v>
+        <v>1.047312061582469</v>
       </c>
       <c r="L21">
-        <v>0.987121397146558</v>
+        <v>1.040981534225903</v>
       </c>
       <c r="M21">
-        <v>0.999718470107012</v>
+        <v>1.054586726559714</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1178,37 +1178,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9519610029035818</v>
+        <v>1.037707849105032</v>
       </c>
       <c r="D22">
-        <v>0.9835447406041582</v>
+        <v>1.042878758857783</v>
       </c>
       <c r="E22">
-        <v>0.9655398786740768</v>
+        <v>1.036419163366945</v>
       </c>
       <c r="F22">
-        <v>0.9780430148344366</v>
+        <v>1.050017340280796</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.030457902417264</v>
+        <v>1.036895725334611</v>
       </c>
       <c r="J22">
-        <v>0.9849646987531098</v>
+        <v>1.044524705745159</v>
       </c>
       <c r="K22">
-        <v>0.9994493826543338</v>
+        <v>1.046561487311233</v>
       </c>
       <c r="L22">
-        <v>0.9818263662702208</v>
+        <v>1.04012666297673</v>
       </c>
       <c r="M22">
-        <v>0.9940623641253886</v>
+        <v>1.053673086547201</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1216,37 +1216,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.955850382762644</v>
+        <v>1.038313804192128</v>
       </c>
       <c r="D23">
-        <v>0.9865142674410838</v>
+        <v>1.043346436859715</v>
       </c>
       <c r="E23">
-        <v>0.9687677290288776</v>
+        <v>1.036942815921069</v>
       </c>
       <c r="F23">
-        <v>0.9814589332218867</v>
+        <v>1.050571190701787</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.031798254002076</v>
+        <v>1.037055330867217</v>
       </c>
       <c r="J23">
-        <v>0.9879469013590281</v>
+        <v>1.044997351432843</v>
       </c>
       <c r="K23">
-        <v>1.002038567937972</v>
+        <v>1.046959649810416</v>
       </c>
       <c r="L23">
-        <v>0.9846565332312339</v>
+        <v>1.04058007815864</v>
       </c>
       <c r="M23">
-        <v>0.9970852981015913</v>
+        <v>1.054157659836256</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1254,37 +1254,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9704828646240843</v>
+        <v>1.040694422858709</v>
       </c>
       <c r="D24">
-        <v>0.9977075316942525</v>
+        <v>1.045182933267954</v>
       </c>
       <c r="E24">
-        <v>0.9809388851347798</v>
+        <v>1.039000416963806</v>
       </c>
       <c r="F24">
-        <v>0.994340954982292</v>
+        <v>1.052747569389285</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.036812028710887</v>
+        <v>1.037677812577749</v>
       </c>
       <c r="J24">
-        <v>0.99916648564263</v>
+        <v>1.046852569283523</v>
       </c>
       <c r="K24">
-        <v>1.011775025604983</v>
+        <v>1.048521259089531</v>
       </c>
       <c r="L24">
-        <v>0.9953092133833582</v>
+        <v>1.042360041236564</v>
       </c>
       <c r="M24">
-        <v>1.008468184004868</v>
+        <v>1.056060209383978</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1292,37 +1292,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9862543804911192</v>
+        <v>1.043447131796739</v>
       </c>
       <c r="D25">
-        <v>1.009804766882527</v>
+        <v>1.047304620475771</v>
       </c>
       <c r="E25">
-        <v>0.9941040770016979</v>
+        <v>1.041380257306681</v>
       </c>
       <c r="F25">
-        <v>1.008277880771081</v>
+        <v>1.05526503043806</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.04215244887333</v>
+        <v>1.03838813362123</v>
       </c>
       <c r="J25">
-        <v>1.011253362858735</v>
+        <v>1.048994285846524</v>
       </c>
       <c r="K25">
-        <v>1.022252759568382</v>
+        <v>1.050321427589336</v>
       </c>
       <c r="L25">
-        <v>1.006794614330395</v>
+        <v>1.04441535208128</v>
       </c>
       <c r="M25">
-        <v>1.020749038162862</v>
+        <v>1.058257617455097</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_253/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_253/res_bus/vm_pu.xlsx
@@ -418,37 +418,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.045635148374532</v>
+        <v>0.998021246192633</v>
       </c>
       <c r="D2">
-        <v>1.048989521873808</v>
+        <v>1.018847679150239</v>
       </c>
       <c r="E2">
-        <v>1.043272374191927</v>
+        <v>1.003956376406818</v>
       </c>
       <c r="F2">
-        <v>1.057266750859573</v>
+        <v>1.018709411282451</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.038945101223043</v>
+        <v>1.046081616010043</v>
       </c>
       <c r="J2">
-        <v>1.050693830037792</v>
+        <v>1.020261302955288</v>
       </c>
       <c r="K2">
-        <v>1.051747829631311</v>
+        <v>1.030050535101954</v>
       </c>
       <c r="L2">
-        <v>1.046046707304128</v>
+        <v>1.01536086643886</v>
       </c>
       <c r="M2">
-        <v>1.060002189996295</v>
+        <v>1.029914105396652</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -456,37 +456,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.047219679848313</v>
+        <v>1.006159466587859</v>
       </c>
       <c r="D3">
-        <v>1.050208786366259</v>
+        <v>1.025108429825664</v>
       </c>
       <c r="E3">
-        <v>1.044642879433515</v>
+        <v>1.010784838605284</v>
       </c>
       <c r="F3">
-        <v>1.058716748892199</v>
+        <v>1.025940086055576</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.039344011464254</v>
+        <v>1.048765297839418</v>
       </c>
       <c r="J3">
-        <v>1.051922970927945</v>
+        <v>1.026483615178825</v>
       </c>
       <c r="K3">
-        <v>1.052778198188464</v>
+        <v>1.035429815246158</v>
       </c>
       <c r="L3">
-        <v>1.047226751078704</v>
+        <v>1.021281560384173</v>
       </c>
       <c r="M3">
-        <v>1.061264374463785</v>
+        <v>1.036251477726293</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -494,37 +494,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.048243119561687</v>
+        <v>1.011256166779455</v>
       </c>
       <c r="D4">
-        <v>1.050995869573817</v>
+        <v>1.029031315110282</v>
       </c>
       <c r="E4">
-        <v>1.045528195622351</v>
+        <v>1.015067119692061</v>
       </c>
       <c r="F4">
-        <v>1.059653462628368</v>
+        <v>1.030474890246529</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.03959960859058</v>
+        <v>1.050429790837301</v>
       </c>
       <c r="J4">
-        <v>1.052716100873802</v>
+        <v>1.030376256490921</v>
       </c>
       <c r="K4">
-        <v>1.053442493544439</v>
+        <v>1.038791542501536</v>
       </c>
       <c r="L4">
-        <v>1.047988300916332</v>
+        <v>1.024987036345054</v>
       </c>
       <c r="M4">
-        <v>1.062079045932167</v>
+        <v>1.040218913424488</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -532,37 +532,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.048672938301473</v>
+        <v>1.013360744756759</v>
       </c>
       <c r="D5">
-        <v>1.051326319781069</v>
+        <v>1.03065152916166</v>
       </c>
       <c r="E5">
-        <v>1.045900032631819</v>
+        <v>1.016836691951494</v>
       </c>
       <c r="F5">
-        <v>1.060046897896429</v>
+        <v>1.032348873070692</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.039706459944936</v>
+        <v>1.051113138106951</v>
       </c>
       <c r="J5">
-        <v>1.053049011617624</v>
+        <v>1.03198255678891</v>
       </c>
       <c r="K5">
-        <v>1.053721189366414</v>
+        <v>1.04017788337993</v>
       </c>
       <c r="L5">
-        <v>1.048307980266619</v>
+        <v>1.026516457963783</v>
       </c>
       <c r="M5">
-        <v>1.06242105085341</v>
+        <v>1.041856726159344</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -570,37 +570,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.048745081507456</v>
+        <v>1.013711946988095</v>
       </c>
       <c r="D6">
-        <v>1.051381778230287</v>
+        <v>1.030921919127788</v>
       </c>
       <c r="E6">
-        <v>1.045962445395373</v>
+        <v>1.017132062966232</v>
       </c>
       <c r="F6">
-        <v>1.060112936565062</v>
+        <v>1.032661675239864</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.039724365552408</v>
+        <v>1.051226936056479</v>
       </c>
       <c r="J6">
-        <v>1.053104878445934</v>
+        <v>1.03225054260145</v>
       </c>
       <c r="K6">
-        <v>1.053767950134936</v>
+        <v>1.040409119883607</v>
       </c>
       <c r="L6">
-        <v>1.048361628107235</v>
+        <v>1.026771638387578</v>
       </c>
       <c r="M6">
-        <v>1.062478446863438</v>
+        <v>1.042130006743824</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -608,37 +608,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.048248864519481</v>
+        <v>1.011284434789929</v>
       </c>
       <c r="D7">
-        <v>1.051000286785134</v>
+        <v>1.029053076132617</v>
       </c>
       <c r="E7">
-        <v>1.045533165492534</v>
+        <v>1.01509088303566</v>
       </c>
       <c r="F7">
-        <v>1.059658721131713</v>
+        <v>1.030500055478246</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.039601038704505</v>
+        <v>1.050438985167183</v>
       </c>
       <c r="J7">
-        <v>1.052720551282191</v>
+        <v>1.030397836201409</v>
       </c>
       <c r="K7">
-        <v>1.05344621973964</v>
+        <v>1.038810170703802</v>
       </c>
       <c r="L7">
-        <v>1.047992574350271</v>
+        <v>1.025007581841586</v>
       </c>
       <c r="M7">
-        <v>1.062083617707869</v>
+        <v>1.04024091395084</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -646,37 +646,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.046171038684979</v>
+        <v>1.000808193610522</v>
       </c>
       <c r="D8">
-        <v>1.049401967457019</v>
+        <v>1.020991176822308</v>
       </c>
       <c r="E8">
-        <v>1.043735856296062</v>
+        <v>1.00629348995502</v>
       </c>
       <c r="F8">
-        <v>1.057757106253325</v>
+        <v>1.021184120285145</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.039080439140627</v>
+        <v>1.047004022400285</v>
       </c>
       <c r="J8">
-        <v>1.051109685113578</v>
+        <v>1.022392977837565</v>
       </c>
       <c r="K8">
-        <v>1.052096552556711</v>
+        <v>1.031894122539402</v>
       </c>
       <c r="L8">
-        <v>1.046445930423231</v>
+        <v>1.017388881462817</v>
       </c>
       <c r="M8">
-        <v>1.060429179023084</v>
+        <v>1.032084585745079</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -684,37 +684,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.042494985065503</v>
+        <v>0.9809276718394456</v>
       </c>
       <c r="D9">
-        <v>1.046570976444088</v>
+        <v>1.005715694158151</v>
       </c>
       <c r="E9">
-        <v>1.040557007290881</v>
+        <v>0.9896523877219249</v>
       </c>
       <c r="F9">
-        <v>1.054394144293653</v>
+        <v>1.00356493148207</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.038143620304707</v>
+        <v>1.040357320019683</v>
       </c>
       <c r="J9">
-        <v>1.048253913603922</v>
+        <v>1.007172378407168</v>
       </c>
       <c r="K9">
-        <v>1.049699451605135</v>
+        <v>1.018716713911598</v>
       </c>
       <c r="L9">
-        <v>1.04370479083482</v>
+        <v>1.002915608749155</v>
       </c>
       <c r="M9">
-        <v>1.057497862877583</v>
+        <v>1.016600433740905</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -722,37 +722,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.040033825574568</v>
+        <v>0.966521024597042</v>
       </c>
       <c r="D10">
-        <v>1.044673467546508</v>
+        <v>0.9946737318953048</v>
       </c>
       <c r="E10">
-        <v>1.038429402148724</v>
+        <v>0.9776392588546617</v>
       </c>
       <c r="F10">
-        <v>1.052143572707677</v>
+        <v>0.9908483519518108</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.037505821568433</v>
+        <v>1.035459458541977</v>
       </c>
       <c r="J10">
-        <v>1.046338036825167</v>
+        <v>0.9961289218030391</v>
       </c>
       <c r="K10">
-        <v>1.048088360404428</v>
+        <v>1.009139824314082</v>
       </c>
       <c r="L10">
-        <v>1.041866343152298</v>
+        <v>0.9924243311353188</v>
       </c>
       <c r="M10">
-        <v>1.0555324667126</v>
+        <v>1.005384831834056</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -760,37 +760,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.03896550157517</v>
+        <v>0.9599559301516977</v>
       </c>
       <c r="D11">
-        <v>1.04384932035441</v>
+        <v>0.9896515377291178</v>
       </c>
       <c r="E11">
-        <v>1.037506035510072</v>
+        <v>0.9721783484552278</v>
       </c>
       <c r="F11">
-        <v>1.051166903744556</v>
+        <v>0.9850684831454354</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.037226465435273</v>
+        <v>1.033209850681884</v>
       </c>
       <c r="J11">
-        <v>1.045505486591483</v>
+        <v>0.9910949794423904</v>
       </c>
       <c r="K11">
-        <v>1.047387567017714</v>
+        <v>1.004771285698266</v>
       </c>
       <c r="L11">
-        <v>1.041067564905601</v>
+        <v>0.9876447303881881</v>
       </c>
       <c r="M11">
-        <v>1.054678676948245</v>
+        <v>1.000277588561039</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -798,37 +798,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.038568272322504</v>
+        <v>0.9574628441208521</v>
       </c>
       <c r="D12">
-        <v>1.043542809940863</v>
+        <v>0.9877461121436637</v>
       </c>
       <c r="E12">
-        <v>1.037162731520864</v>
+        <v>0.9701068464064687</v>
       </c>
       <c r="F12">
-        <v>1.050803792036691</v>
+        <v>0.982876131204067</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.037122218179206</v>
+        <v>1.032353074265606</v>
       </c>
       <c r="J12">
-        <v>1.045195786394256</v>
+        <v>0.9891833067807312</v>
       </c>
       <c r="K12">
-        <v>1.047126776011952</v>
+        <v>1.003111904033358</v>
       </c>
       <c r="L12">
-        <v>1.040770446352182</v>
+        <v>0.9858300704432047</v>
       </c>
       <c r="M12">
-        <v>1.054361118131174</v>
+        <v>0.9983389188890673</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -836,37 +836,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.038653497913347</v>
+        <v>0.9580001825181003</v>
       </c>
       <c r="D13">
-        <v>1.043608575034438</v>
+        <v>0.9881567072268567</v>
       </c>
       <c r="E13">
-        <v>1.037236386223024</v>
+        <v>0.9705532133805783</v>
       </c>
       <c r="F13">
-        <v>1.050881695967521</v>
+        <v>0.9833485321798895</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.037144601434201</v>
+        <v>1.032537846046969</v>
       </c>
       <c r="J13">
-        <v>1.045262238823524</v>
+        <v>0.9895953309914634</v>
       </c>
       <c r="K13">
-        <v>1.047182738640142</v>
+        <v>1.003469568706063</v>
       </c>
       <c r="L13">
-        <v>1.040834198284155</v>
+        <v>0.9862211657765639</v>
       </c>
       <c r="M13">
-        <v>1.054429254868614</v>
+        <v>0.9987567228119602</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -874,37 +874,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.038932674834492</v>
+        <v>0.9597509972602378</v>
       </c>
       <c r="D14">
-        <v>1.043823992016807</v>
+        <v>0.9894948735757578</v>
       </c>
       <c r="E14">
-        <v>1.037477664567828</v>
+        <v>0.9720080224111458</v>
       </c>
       <c r="F14">
-        <v>1.051136895672603</v>
+        <v>0.9848882174209721</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.037217858176168</v>
+        <v>1.033139472689189</v>
       </c>
       <c r="J14">
-        <v>1.04547989598877</v>
+        <v>0.9909378387070801</v>
       </c>
       <c r="K14">
-        <v>1.047366019891234</v>
+        <v>1.0046348911529</v>
       </c>
       <c r="L14">
-        <v>1.041043013543421</v>
+        <v>0.9874955553811755</v>
       </c>
       <c r="M14">
-        <v>1.054652436122184</v>
+        <v>1.000118211256427</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -912,37 +912,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.039104630779597</v>
+        <v>0.9608223320760499</v>
       </c>
       <c r="D15">
-        <v>1.043956666216999</v>
+        <v>0.9903139449816848</v>
       </c>
       <c r="E15">
-        <v>1.037626280846236</v>
+        <v>0.9728985355613331</v>
       </c>
       <c r="F15">
-        <v>1.051294088177392</v>
+        <v>0.985830703919751</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.037262930106416</v>
+        <v>1.033507290100006</v>
       </c>
       <c r="J15">
-        <v>1.045613941330967</v>
+        <v>0.9917593283151347</v>
       </c>
       <c r="K15">
-        <v>1.047478881012616</v>
+        <v>1.005347909403188</v>
       </c>
       <c r="L15">
-        <v>1.041171616042079</v>
+        <v>0.9882754197164438</v>
       </c>
       <c r="M15">
-        <v>1.054789889110966</v>
+        <v>1.000951427516304</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -950,37 +950,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.040104670405722</v>
+        <v>0.9669493979495559</v>
       </c>
       <c r="D16">
-        <v>1.044728109860073</v>
+        <v>0.9950016535476039</v>
       </c>
       <c r="E16">
-        <v>1.038490637943634</v>
+        <v>0.9779958818816921</v>
       </c>
       <c r="F16">
-        <v>1.052208344775701</v>
+        <v>0.9912258228257423</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.037524294117333</v>
+        <v>1.035605894567883</v>
       </c>
       <c r="J16">
-        <v>1.046393227265235</v>
+        <v>0.9964573717235512</v>
       </c>
       <c r="K16">
-        <v>1.048134802124072</v>
+        <v>1.009424799912388</v>
       </c>
       <c r="L16">
-        <v>1.041919297451356</v>
+        <v>0.9927362427641405</v>
       </c>
       <c r="M16">
-        <v>1.055589071040923</v>
+        <v>1.005718176134712</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -988,37 +988,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.040731257661335</v>
+        <v>0.9707016558083426</v>
       </c>
       <c r="D17">
-        <v>1.045211337668915</v>
+        <v>0.9978751360419521</v>
       </c>
       <c r="E17">
-        <v>1.039032257821975</v>
+        <v>0.9811211951746081</v>
       </c>
       <c r="F17">
-        <v>1.05278124981637</v>
+        <v>0.9945339327387405</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.037687385712982</v>
+        <v>1.036886606644036</v>
       </c>
       <c r="J17">
-        <v>1.046881253275848</v>
+        <v>0.9993342243625352</v>
       </c>
       <c r="K17">
-        <v>1.048545387500966</v>
+        <v>1.011920524678167</v>
       </c>
       <c r="L17">
-        <v>1.042387564611167</v>
+        <v>0.9954685383401806</v>
       </c>
       <c r="M17">
-        <v>1.056089631716148</v>
+        <v>1.008638485536208</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1026,37 +1026,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.041096482858632</v>
+        <v>0.9728591465882376</v>
       </c>
       <c r="D18">
-        <v>1.045492954310588</v>
+        <v>0.9995282228525623</v>
       </c>
       <c r="E18">
-        <v>1.039347973572573</v>
+        <v>0.9829194440120984</v>
       </c>
       <c r="F18">
-        <v>1.053115208189176</v>
+        <v>0.9964374344740077</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.037782207202128</v>
+        <v>1.037621333184427</v>
       </c>
       <c r="J18">
-        <v>1.047165625310371</v>
+        <v>1.000988222237603</v>
       </c>
       <c r="K18">
-        <v>1.048784568655291</v>
+        <v>1.01335510475659</v>
       </c>
       <c r="L18">
-        <v>1.042660435218415</v>
+        <v>0.997039670681699</v>
       </c>
       <c r="M18">
-        <v>1.056381334549297</v>
+        <v>1.010317947103507</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1064,37 +1064,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.041220972727471</v>
+        <v>0.9735896646146178</v>
       </c>
       <c r="D19">
-        <v>1.045588937502713</v>
+        <v>1.000088092409495</v>
       </c>
       <c r="E19">
-        <v>1.039455590501553</v>
+        <v>0.9835285279141781</v>
       </c>
       <c r="F19">
-        <v>1.053229044459482</v>
+        <v>0.9970821807371978</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.037814486896561</v>
+        <v>1.037869822151707</v>
       </c>
       <c r="J19">
-        <v>1.047262540702198</v>
+        <v>1.001548229489746</v>
       </c>
       <c r="K19">
-        <v>1.048866071506495</v>
+        <v>1.01384077017094</v>
       </c>
       <c r="L19">
-        <v>1.042753432905747</v>
+        <v>0.9975716623107147</v>
       </c>
       <c r="M19">
-        <v>1.056480752861326</v>
+        <v>1.010886655330608</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1102,37 +1102,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.040664056985425</v>
+        <v>0.9703023311929388</v>
       </c>
       <c r="D20">
-        <v>1.045159516982541</v>
+        <v>0.9975692395310286</v>
       </c>
       <c r="E20">
-        <v>1.038974168090296</v>
+        <v>0.9807884607794808</v>
       </c>
       <c r="F20">
-        <v>1.052719804052166</v>
+        <v>0.9941817290970836</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.037669919315727</v>
+        <v>1.036750481990858</v>
       </c>
       <c r="J20">
-        <v>1.046828922275313</v>
+        <v>0.9990280767939315</v>
       </c>
       <c r="K20">
-        <v>1.048501367316058</v>
+        <v>1.011654966019266</v>
       </c>
       <c r="L20">
-        <v>1.04233735110639</v>
+        <v>0.9951777485005543</v>
       </c>
       <c r="M20">
-        <v>1.056035953841831</v>
+        <v>1.008327663173407</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1140,37 +1140,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.038850475495544</v>
+        <v>0.9592369785081061</v>
       </c>
       <c r="D21">
-        <v>1.043760567788422</v>
+        <v>0.9891019530494514</v>
       </c>
       <c r="E21">
-        <v>1.037406623140204</v>
+        <v>0.9715808429805117</v>
       </c>
       <c r="F21">
-        <v>1.05106175499837</v>
+        <v>0.9844361115149013</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.037196299223432</v>
+        <v>1.03296290909321</v>
       </c>
       <c r="J21">
-        <v>1.045415813981647</v>
+        <v>0.9905436936698617</v>
       </c>
       <c r="K21">
-        <v>1.047312061582469</v>
+        <v>1.004292776126211</v>
       </c>
       <c r="L21">
-        <v>1.040981534225903</v>
+        <v>0.9871213971465569</v>
       </c>
       <c r="M21">
-        <v>1.054586726559714</v>
+        <v>0.9997184701070115</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1178,37 +1178,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.037707849105032</v>
+        <v>0.9519610029035799</v>
       </c>
       <c r="D22">
-        <v>1.042878758857783</v>
+        <v>0.9835447406041565</v>
       </c>
       <c r="E22">
-        <v>1.036419163366945</v>
+        <v>0.9655398786740752</v>
       </c>
       <c r="F22">
-        <v>1.050017340280796</v>
+        <v>0.9780430148344349</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.036895725334611</v>
+        <v>1.030457902417263</v>
       </c>
       <c r="J22">
-        <v>1.044524705745159</v>
+        <v>0.9849646987531081</v>
       </c>
       <c r="K22">
-        <v>1.046561487311233</v>
+        <v>0.9994493826543324</v>
       </c>
       <c r="L22">
-        <v>1.04012666297673</v>
+        <v>0.9818263662702194</v>
       </c>
       <c r="M22">
-        <v>1.053673086547201</v>
+        <v>0.9940623641253874</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1216,37 +1216,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.038313804192128</v>
+        <v>0.9558503827626438</v>
       </c>
       <c r="D23">
-        <v>1.043346436859715</v>
+        <v>0.9865142674410835</v>
       </c>
       <c r="E23">
-        <v>1.036942815921069</v>
+        <v>0.9687677290288774</v>
       </c>
       <c r="F23">
-        <v>1.050571190701787</v>
+        <v>0.9814589332218867</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.037055330867217</v>
+        <v>1.031798254002076</v>
       </c>
       <c r="J23">
-        <v>1.044997351432843</v>
+        <v>0.9879469013590282</v>
       </c>
       <c r="K23">
-        <v>1.046959649810416</v>
+        <v>1.002038567937972</v>
       </c>
       <c r="L23">
-        <v>1.04058007815864</v>
+        <v>0.9846565332312337</v>
       </c>
       <c r="M23">
-        <v>1.054157659836256</v>
+        <v>0.9970852981015913</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1254,37 +1254,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.040694422858709</v>
+        <v>0.970482864624085</v>
       </c>
       <c r="D24">
-        <v>1.045182933267954</v>
+        <v>0.9977075316942529</v>
       </c>
       <c r="E24">
-        <v>1.039000416963806</v>
+        <v>0.9809388851347807</v>
       </c>
       <c r="F24">
-        <v>1.052747569389285</v>
+        <v>0.9943409549822922</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.037677812577749</v>
+        <v>1.036812028710888</v>
       </c>
       <c r="J24">
-        <v>1.046852569283523</v>
+        <v>0.9991664856426307</v>
       </c>
       <c r="K24">
-        <v>1.048521259089531</v>
+        <v>1.011775025604983</v>
       </c>
       <c r="L24">
-        <v>1.042360041236564</v>
+        <v>0.9953092133833589</v>
       </c>
       <c r="M24">
-        <v>1.056060209383978</v>
+        <v>1.008468184004868</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1292,37 +1292,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.043447131796739</v>
+        <v>0.9862543804911201</v>
       </c>
       <c r="D25">
-        <v>1.047304620475771</v>
+        <v>1.009804766882528</v>
       </c>
       <c r="E25">
-        <v>1.041380257306681</v>
+        <v>0.9941040770016982</v>
       </c>
       <c r="F25">
-        <v>1.05526503043806</v>
+        <v>1.008277880771082</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.03838813362123</v>
+        <v>1.04215244887333</v>
       </c>
       <c r="J25">
-        <v>1.048994285846524</v>
+        <v>1.011253362858735</v>
       </c>
       <c r="K25">
-        <v>1.050321427589336</v>
+        <v>1.022252759568383</v>
       </c>
       <c r="L25">
-        <v>1.04441535208128</v>
+        <v>1.006794614330395</v>
       </c>
       <c r="M25">
-        <v>1.058257617455097</v>
+        <v>1.020749038162863</v>
       </c>
     </row>
   </sheetData>
